--- a/Datadrivenmodel.xlsx
+++ b/Datadrivenmodel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="345" documentId="8_{7399616E-A962-4F54-A829-67C28CE4FE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5966771-63BF-424F-96B5-3A15B8FA9063}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{76FE5352-97B7-400F-BAF0-674C114E91A5}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{76FE5352-97B7-400F-BAF0-674C114E91A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -657,9 +657,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -697,7 +697,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -803,7 +803,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -945,7 +945,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -955,17 +955,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009581E2-9D9B-438A-B1FB-2FD39139BF6A}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="9" width="48.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A1" s="4" t="s">
         <v>42</v>
       </c>
@@ -994,7 +994,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A2" s="6" t="s">
         <v>43</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A3" s="6"/>
       <c r="B3">
         <v>26</v>
@@ -1050,7 +1050,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A4" s="6"/>
       <c r="B4">
         <v>29</v>
@@ -1077,7 +1077,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A5" s="6"/>
       <c r="B5">
         <v>47</v>
@@ -1104,7 +1104,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A6" s="6"/>
       <c r="B6">
         <v>31</v>
@@ -1131,7 +1131,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A7" s="6"/>
       <c r="B7">
         <v>30</v>
@@ -1158,7 +1158,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A8" s="6"/>
       <c r="B8">
         <v>32</v>
@@ -1185,7 +1185,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A9" s="6"/>
       <c r="B9">
         <v>33</v>
@@ -1212,7 +1212,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A10" s="6"/>
       <c r="B10">
         <v>48</v>
@@ -1239,7 +1239,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A12" s="6"/>
       <c r="B12">
         <v>49</v>
@@ -1295,7 +1295,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A13" s="6"/>
       <c r="B13">
         <v>50</v>
@@ -1322,7 +1322,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A14" s="6"/>
       <c r="B14">
         <v>36</v>
@@ -1349,7 +1349,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A15" s="6"/>
       <c r="B15">
         <v>37</v>
@@ -1376,7 +1376,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A16" s="6"/>
       <c r="B16">
         <v>38</v>
@@ -1403,7 +1403,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A17" s="6"/>
       <c r="B17">
         <v>51</v>
@@ -1430,7 +1430,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A18" s="6"/>
       <c r="B18">
         <v>52</v>
@@ -1457,7 +1457,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A19" s="6"/>
       <c r="B19">
         <v>53</v>
@@ -1484,7 +1484,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A20" s="6"/>
       <c r="B20">
         <v>54</v>
@@ -1511,7 +1511,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A21" s="6" t="s">
         <v>55</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A22" s="6"/>
       <c r="B22">
         <v>45</v>
@@ -1567,7 +1567,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A23" s="6"/>
       <c r="B23">
         <v>55</v>
@@ -1594,7 +1594,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A24" s="6"/>
       <c r="B24">
         <v>44</v>
@@ -1621,7 +1621,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A25" s="6"/>
       <c r="B25">
         <v>56</v>
@@ -1648,7 +1648,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A26" s="6" t="s">
         <v>56</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A27" s="6"/>
       <c r="B27">
         <v>57</v>
@@ -1704,7 +1704,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A28" s="6"/>
       <c r="B28">
         <v>42</v>
@@ -1731,7 +1731,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A29" s="6"/>
       <c r="B29">
         <v>43</v>
@@ -1758,7 +1758,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A30" s="6"/>
       <c r="B30">
         <v>58</v>
@@ -1785,7 +1785,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>112</v>
       </c>
